--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19BCEEA-7F95-457A-9F70-8B37E6E3EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C961D-4A56-4A31-B558-D40D8D3283D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="295">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1371,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1956,7 +1955,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>412</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>37621</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>445</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>446</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>478</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>37592</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>482</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>37579</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>483</v>
       </c>
@@ -2061,8 +2060,11 @@
       <c r="F38" s="8">
         <v>37384</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="G38" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>484</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>37229</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>490</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>492</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>498</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>516</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>530</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>541</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>543</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>555</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>37607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>568</v>
       </c>

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C961D-4A56-4A31-B558-D40D8D3283D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB5B84-4EB2-447F-B00B-DB93044494B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="295">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1022,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1051,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1392,6 +1395,9 @@
       </c>
       <c r="F1" s="4">
         <v>37743</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB5B84-4EB2-447F-B00B-DB93044494B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD005ED-C4D4-48C0-81E6-A873B779B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="296">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -920,6 +920,22 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>simulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -957,6 +973,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1373,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1474,6 +1497,9 @@
       <c r="F5" s="4">
         <v>37700</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -1586,6 +1612,9 @@
       <c r="F11" s="4">
         <v>38657</v>
       </c>
+      <c r="G11" s="10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -1617,7 +1646,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>2</v>
+        <v>295</v>
       </c>
       <c r="F13" s="4">
         <v>37729</v>
@@ -1639,6 +1668,9 @@
       </c>
       <c r="F14" s="8">
         <v>37242</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD005ED-C4D4-48C0-81E6-A873B779B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9879D22-E712-4026-BE70-B61EBC9D36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -938,12 +938,29 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可再複習</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,6 +996,13 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1394,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1556,6 +1580,9 @@
       <c r="F8" s="8">
         <v>37579</v>
       </c>
+      <c r="G8" s="9" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1709,7 +1736,7 @@
         <v>37242</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>275</v>
       </c>
@@ -1727,7 +1754,7 @@
         <v>39228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>294</v>
       </c>
@@ -1745,7 +1772,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>300</v>
       </c>
@@ -1763,7 +1790,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>340</v>
       </c>
@@ -1781,7 +1808,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>343</v>
       </c>
@@ -1799,7 +1826,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>350</v>
       </c>
@@ -1817,7 +1844,7 @@
         <v>37242</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>353</v>
       </c>
@@ -1837,7 +1864,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>355</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>37775</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>356</v>
       </c>
@@ -1871,7 +1898,7 @@
         <v>37242</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>357</v>
       </c>
@@ -1888,8 +1915,14 @@
       <c r="F26" s="8">
         <v>37348</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>382</v>
       </c>
@@ -1905,7 +1938,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>386</v>
       </c>
@@ -1921,7 +1954,7 @@
         <v>37348</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>389</v>
       </c>
@@ -1939,7 +1972,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>392</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>402</v>
       </c>
@@ -1975,7 +2008,7 @@
         <v>37587</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>406</v>
       </c>

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9879D22-E712-4026-BE70-B61EBC9D36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E415EB-7E60-44A5-99E9-518CC2CA6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2262,6 +2262,9 @@
       <c r="F45" s="4">
         <v>38964</v>
       </c>
+      <c r="G45" s="10" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
@@ -2313,7 +2316,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>573</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>576</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>37621</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>587</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>602</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>608</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>612</v>
       </c>
@@ -2420,8 +2423,11 @@
       <c r="F54" s="8">
         <v>38044</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G54" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>642</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>38659</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>661</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>37236</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>665</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>673</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>37411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>679</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>37937</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>686</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>37411</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>694</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>37427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>700</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>38908</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>727</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>39228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>729</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>37916</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>10591</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>38014</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>10620</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>10622</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>10625</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>10633</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>38301</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>10684</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>10699</v>
       </c>
@@ -3907,7 +3913,7 @@
         <v>38230</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>10706</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>38314</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>10714</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>10730</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>38408</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>10771</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>38427</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>10776</v>
       </c>
@@ -4000,8 +4006,11 @@
       <c r="F140" s="8">
         <v>41712</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>10784</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>10790</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>38727</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>10800</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>38405</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>10830</v>
       </c>

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E415EB-7E60-44A5-99E9-518CC2CA6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7049B84-5FBB-41A0-9F71-C7A4C0EA97E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2502,6 +2502,9 @@
       <c r="F58" s="8">
         <v>37411</v>
       </c>
+      <c r="G58" s="9" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -4976,7 +4979,7 @@
         <v>40900</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>11550</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>11565</v>
       </c>
@@ -5014,7 +5017,7 @@
         <v>41052</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>11572</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>11579</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>40900</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>11614</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>11639</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>43756</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>11714</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>11728</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>11730</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>11752</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>11876</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>40983</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>11909</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>40906</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>11946</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>11947</v>
       </c>
@@ -5243,8 +5246,11 @@
       <c r="F206" s="8">
         <v>40883</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G206" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>11955</v>
       </c>
@@ -5262,7 +5268,7 @@
         <v>40879</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>11956</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>41164</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>11959</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>41156</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>11986</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>41082</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>11995</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>40906</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>12004</v>
       </c>
@@ -5355,8 +5361,11 @@
       <c r="F212" s="8">
         <v>40902</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G212" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>12068</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>12208</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>12347</v>
       </c>
@@ -5414,7 +5423,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>12406</v>
       </c>
@@ -5434,7 +5443,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>12414</v>
       </c>
@@ -5452,7 +5461,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>12416</v>
       </c>
@@ -5470,7 +5479,7 @@
         <v>41178</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>12455</v>
       </c>
@@ -5488,7 +5497,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>12461</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>41176</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>12542</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>12694</v>
       </c>
@@ -5541,8 +5550,11 @@
       <c r="F222" s="8">
         <v>41778</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G222" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>12908</v>
       </c>

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7049B84-5FBB-41A0-9F71-C7A4C0EA97E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75A229-DF9D-497F-A3BC-A4B26BEDE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5495,6 +5495,9 @@
       </c>
       <c r="F219" s="4">
         <v>41183</v>
+      </c>
+      <c r="G219" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB75A229-DF9D-497F-A3BC-A4B26BEDE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251FCC8-979A-42D0-AC5E-6E46C34CCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3896,6 +3896,9 @@
       </c>
       <c r="F134" s="8">
         <v>38364</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva二星題.xlsx
+++ b/uva/uva二星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251FCC8-979A-42D0-AC5E-6E46C34CCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF0D7E-DEB0-4672-8128-EC514328DC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14873A51-D1B8-49F3-8DFE-E711E89B739C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="298">
   <si>
     <t>The Blocks Problem</t>
   </si>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812C1B90-03C1-4A0C-9EC2-9B8A2FBA33FC}">
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4088,7 +4088,7 @@
         <v>38874</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>10871</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>10880</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>38614</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>10892</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>38602</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>10905</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>10916</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>38628</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>10919</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>38628</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>10922</v>
       </c>
@@ -4221,8 +4221,11 @@
       <c r="F151" s="4">
         <v>38740</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G151" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>10959</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>10962</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>38974</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>10976</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>10994</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>38936</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>11000</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>38791</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>11001</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>38790</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>11005</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>38811</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>11038</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>38874</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>11039</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>40984</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>11069</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>11070</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>11115</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>41718</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>11121</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>39058</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>11150</v>
       </c>
@@ -4475,8 +4478,11 @@
       <c r="F165" s="4">
         <v>39167</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>11152</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>40906</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>11207</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>41440</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>11223</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>11227</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>11231</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>11233</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>11236</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>41347</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>11247</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>40973</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>11254</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>11258</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>41375</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>11286</v>
       </c>
